--- a/similarities/split_global/harmonic_similarity_timestamps_203.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_203.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>isophonics_276</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:12.980000', '0:01:32.860000')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:33.940000', '0:00:40.880000')]</t>
+          <t>('0:00:09.738333', '0:00:15.380782')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=72.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=33.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=9.738333</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['A', 'E', 'D', 'A', 'D', 'A', 'E', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>['A', 'E/4', 'D/5', 'A', 'D', 'A', 'E/4', 'D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+          <t>('0:01:34.488367', '0:01:49.349138')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:22.098788')]</t>
+          <t>('0:00:30.470000', '0:00:45.478000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=94.488367</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=30.47</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000')]</t>
+          <t>('0:00:19.860000', '0:00:22.320000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:18.060000', '0:00:20.600000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb'], ['F:7', 'Bb', 'F:7']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C'], ['G:7', 'C', 'G:7']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.510000', '0:00:15.070000'), ('0:00:12.430000', '0:00:15.310000')]</t>
+          <t>('0:01:58.400000', '0:02:01.720000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000'), ('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=11.51', 'https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:17.046000', '0:00:28.197000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:04:21.828000', '0:04:38.542000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=17.046']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Eb']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:21.577709', '0:00:29.878843')]</t>
+          <t>('0:01:58.440000', '0:02:02.340000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.043000', '0:00:10.286000')]</t>
+          <t>('0:00:46.932280', '0:00:57.636679')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-62#t=21.577709']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:36.260000', '0:01:47.180000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:49.380000')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=96.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:03.044470', '0:00:11.035850')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min', 'A']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:30.240000', '0:00:40.540000')]</t>
+          <t>('0:00:00.380000', '0:00:07.840000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:38.578071', '0:00:46.066507')]</t>
+          <t>('0:01:19.040000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=30.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=38.578071']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:02.340000')]</t>
+          <t>('0:01:04.660000', '0:01:11.060000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:14.983242')]</t>
+          <t>('0:00:23.575000', '0:00:34.995000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C#:maj/F', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:54.760000', '0:01:02.820000'), ('0:01:10.980000', '0:01:20.440000')]</t>
+          <t>('0:00:35.220000', '0:00:40')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:06.840000'), ('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:00:32.980000', '0:00:35.260000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=32.98</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['C:7', 'F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:min', 'A:min', 'E:min']]</t>
+          <t>['Eb:7', 'Ab', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:24.780000', '0:01:40.380000')]</t>
+          <t>('0:01:13.740000', '0:01:29.520000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:03.831000', '0:00:12.567000')]</t>
+          <t>('0:01:31.460000', '0:01:37.740000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=84.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=73.74</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=3.831']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=91.46</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:15.300000', '0:00:22.660000')]</t>
+          <t>('0:00:14.840000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+          <t>('0:00:00.300000', '0:00:02.820000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=14.84</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['Bb', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C', 'D', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.140000', '0:00:09.880000')]</t>
+          <t>('0:01:03.861000', '0:01:06.732000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:39.300000', '0:00:59.820000')]</t>
+          <t>('0:00:43.100468', '0:00:51.657021')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.861</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=39.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=43.100468</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:19.820000')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:22.100000', '0:00:29.560000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=7.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=22.1']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
